--- a/current_season.xlsx
+++ b/current_season.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwyer.190\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwyer.190\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D392458-7E5C-4758-A5C1-6E20169D6FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF93719-1204-41A3-9358-9FB7497DA78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB1F0B43-A2AA-476F-9F3E-4DCB123CC201}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$31</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>TEAM</t>
   </si>
@@ -175,9 +172,6 @@
   <si>
     <t>Toronto Raptors</t>
   </si>
-  <si>
-    <t>CumulativeScore</t>
-  </si>
 </sst>
 </file>
 
@@ -205,12 +199,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -234,13 +246,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -315,6 +334,447 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 32" descr="Minnesota Timberwolves Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86706634-1A3A-4EC5-9A0F-5ED3493C266F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 33" descr="Cleveland Cavaliers Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57A7059-E958-4FC1-8811-C6542A59027E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 34" descr="LA Clippers Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8BF6D4-5860-4E4B-9745-BBCDEA1222FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 35" descr="Denver Nuggets Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A33D0E9-CA72-4582-AE2F-06AB356670B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 36" descr="Oklahoma City Thunder Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C7BC2B-B41B-428B-8D7B-1E45AFBD25F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1333500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 37" descr="Milwaukee Bucks Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6072F8E3-B2BB-428D-A581-EA77B8F23E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 38" descr="New York Knicks Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EE3FCA-8FF4-445F-BEC7-CBB4CF22EB12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 39" descr="Philadelphia 76ers Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C83A186-40B0-434C-9192-2DB3A33C3A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 40" descr="New Orleans Pelicans Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE5EDA9-F205-4F3A-847D-CAFB0161A7C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -326,21 +786,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 32" descr="Minnesota Timberwolves Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86706634-1A3A-4EC5-9A0F-5ED3493C266F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2667000"/>
+        <xdr:cNvPr id="12" name="AutoShape 41" descr="Phoenix Suns Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6579B8C7-7248-47D3-886E-B11D2144369D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2857500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -364,32 +824,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 33" descr="Cleveland Cavaliers Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57A7059-E958-4FC1-8811-C6542A59027E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
+        <xdr:cNvPr id="13" name="AutoShape 42" descr="Sacramento Kings Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1581C36-3F56-4BD8-BF8A-2DCBE8C182D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -413,32 +873,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 34" descr="LA Clippers Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8BF6D4-5860-4E4B-9745-BBCDEA1222FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="571500"/>
+        <xdr:cNvPr id="14" name="AutoShape 43" descr="Dallas Mavericks Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB170A39-5C7A-4942-BF0C-11A62D35BC2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -462,32 +922,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 35" descr="Denver Nuggets Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A33D0E9-CA72-4582-AE2F-06AB356670B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="952500"/>
+        <xdr:cNvPr id="15" name="AutoShape 44" descr="Indiana Pacers Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B45E56D-CB55-44AA-95EA-3D335C68E701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1143000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -511,32 +971,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 36" descr="Oklahoma City Thunder Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C7BC2B-B41B-428B-8D7B-1E45AFBD25F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1333500"/>
+        <xdr:cNvPr id="16" name="AutoShape 45" descr="Orlando Magic Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B825488-B794-47E2-8344-0D21780E68E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -560,32 +1020,326 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 37" descr="Milwaukee Bucks Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6072F8E3-B2BB-428D-A581-EA77B8F23E91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2095500"/>
+        <xdr:cNvPr id="17" name="AutoShape 46" descr="Miami Heat Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5871E696-8145-4BEB-9C88-E7AFAF143F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 47" descr="Los Angeles Lakers Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDC733B-929E-4FD6-BE16-44B12DB8319F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 48" descr="Golden State Warriors Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3595C2A8-A154-4652-9592-748F890A95E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 49" descr="Utah Jazz Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0E0EDD-BD31-48D1-9337-00E00DEBE87D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 50" descr="Chicago Bulls Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94896ED7-BC83-4B56-AD85-E80299658442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 51" descr="Atlanta Hawks Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF06021-83B7-44CB-AC7F-7B91E5A9BC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4953000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 52" descr="Houston Rockets Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959EC77D-F791-4465-AC1A-17114F43EA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -620,21 +1374,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 38" descr="New York Knicks Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EE3FCA-8FF4-445F-BEC7-CBB4CF22EB12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1524000"/>
+        <xdr:cNvPr id="24" name="AutoShape 53" descr="Brooklyn Nets Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BE7772-9BA0-4229-8CC3-214D22922A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1714500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -658,32 +1412,81 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 54" descr="Toronto Raptors Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E16CDB-FD98-4C47-8879-88A191ABCD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="304800" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 39" descr="Philadelphia 76ers Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C83A186-40B0-434C-9192-2DB3A33C3A80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2286000"/>
+        <xdr:cNvPr id="26" name="AutoShape 55" descr="Memphis Grizzlies Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204D6A37-CE5F-400F-9F79-F8CE60DCC2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4762500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -707,228 +1510,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 40" descr="New Orleans Pelicans Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE5EDA9-F205-4F3A-847D-CAFB0161A7C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3048000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 41" descr="Phoenix Suns Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6579B8C7-7248-47D3-886E-B11D2144369D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2857500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 42" descr="Sacramento Kings Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1581C36-3F56-4BD8-BF8A-2DCBE8C182D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3619500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 43" descr="Dallas Mavericks Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB170A39-5C7A-4942-BF0C-11A62D35BC2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="762000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 44" descr="Indiana Pacers Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B45E56D-CB55-44AA-95EA-3D335C68E701}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1143000"/>
+        <xdr:cNvPr id="27" name="AutoShape 56" descr="Portland Trail Blazers Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9F64CA-0E8C-4DCE-9777-E86C9805C297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5143500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -963,21 +1570,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 45" descr="Orlando Magic Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B825488-B794-47E2-8344-0D21780E68E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3810000"/>
+        <xdr:cNvPr id="28" name="AutoShape 57" descr="Charlotte Hornets Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB685CC4-8E62-4471-A23A-25948439C419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1001,473 +1608,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 46" descr="Miami Heat Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5871E696-8145-4BEB-9C88-E7AFAF143F5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4191000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="AutoShape 47" descr="Los Angeles Lakers Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDC733B-929E-4FD6-BE16-44B12DB8319F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3429000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="AutoShape 48" descr="Golden State Warriors Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3595C2A8-A154-4652-9592-748F890A95E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2476500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="AutoShape 49" descr="Utah Jazz Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0E0EDD-BD31-48D1-9337-00E00DEBE87D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4381500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="AutoShape 50" descr="Chicago Bulls Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94896ED7-BC83-4B56-AD85-E80299658442}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1905000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="AutoShape 51" descr="Atlanta Hawks Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF06021-83B7-44CB-AC7F-7B91E5A9BC60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4953000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="AutoShape 52" descr="Houston Rockets Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959EC77D-F791-4465-AC1A-17114F43EA00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3238500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 53" descr="Brooklyn Nets Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BE7772-9BA0-4229-8CC3-214D22922A0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1714500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="AutoShape 54" descr="Toronto Raptors Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E16CDB-FD98-4C47-8879-88A191ABCD29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5715000"/>
-          <a:ext cx="304800" cy="312420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="AutoShape 55" descr="Memphis Grizzlies Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204D6A37-CE5F-400F-9F79-F8CE60DCC2A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4762500"/>
+        <xdr:cNvPr id="29" name="AutoShape 58" descr="San Antonio Spurs Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AB7C2E-DCF6-4F44-84E5-87D645752CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5334000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1502,21 +1668,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="AutoShape 56" descr="Portland Trail Blazers Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9F64CA-0E8C-4DCE-9777-E86C9805C297}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5143500"/>
+        <xdr:cNvPr id="30" name="AutoShape 59" descr="Washington Wizards Logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703CC509-49B9-4BA6-98B6-B98EA31171D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1540,160 +1706,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="AutoShape 57" descr="Charlotte Hornets Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB685CC4-8E62-4471-A23A-25948439C419}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4000500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="AutoShape 58" descr="San Antonio Spurs Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AB7C2E-DCF6-4F44-84E5-87D645752CE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5334000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="AutoShape 59" descr="Washington Wizards Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703CC509-49B9-4BA6-98B6-B98EA31171D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5524500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1824,7 +1843,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1956,7 +1975,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2000,7 +2019,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2044,7 +2063,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2132,7 +2151,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2308,7 +2327,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2484,7 +2503,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2528,7 +2547,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2572,7 +2591,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2660,7 +2679,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2704,7 +2723,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2748,7 +2767,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2792,7 +2811,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2836,7 +2855,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2880,7 +2899,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2924,7 +2943,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2968,7 +2987,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3311,78 +3330,74 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3437,49 +3452,49 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>0.68600000000000005</v>
       </c>
       <c r="C3" s="3">
-        <v>1.198</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>1.137</v>
+        <v>1.101</v>
       </c>
       <c r="E3" s="2">
-        <v>119.8</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2">
-        <v>114</v>
+        <v>110.8</v>
       </c>
       <c r="G3" s="2">
-        <v>5.7999999999999972</v>
+        <v>9.5</v>
       </c>
       <c r="H3" s="2">
-        <v>72</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="I3" s="2">
         <v>3</v>
       </c>
       <c r="J3" s="2">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
         <v>3</v>
-      </c>
-      <c r="K3" s="2">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2">
-        <v>4</v>
-      </c>
-      <c r="O3" s="2">
-        <v>10</v>
       </c>
       <c r="P3" s="2">
         <v>45</v>
@@ -3487,52 +3502,52 @@
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>0.68600000000000005</v>
       </c>
       <c r="C4" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.198</v>
       </c>
       <c r="D4" s="2">
-        <v>1.101</v>
+        <v>1.137</v>
       </c>
       <c r="E4" s="2">
-        <v>116</v>
+        <v>119.8</v>
       </c>
       <c r="F4" s="2">
-        <v>110.8</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
-        <v>5.2000000000000028</v>
+        <v>3.9</v>
       </c>
       <c r="H4" s="2">
-        <v>72.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M4" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N4" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O4" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P4" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3555,7 +3570,7 @@
         <v>110.8</v>
       </c>
       <c r="G5" s="2">
-        <v>7.2000000000000028</v>
+        <v>9.5</v>
       </c>
       <c r="H5" s="2">
         <v>72.599999999999994</v>
@@ -3576,13 +3591,13 @@
         <v>6</v>
       </c>
       <c r="N5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>3</v>
       </c>
       <c r="P5" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3605,7 +3620,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="2">
-        <v>3.9000000000000057</v>
+        <v>3.9</v>
       </c>
       <c r="H6" s="2">
         <v>72</v>
@@ -3655,7 +3670,7 @@
         <v>114</v>
       </c>
       <c r="G7" s="2">
-        <v>6.7999999999999972</v>
+        <v>3.9</v>
       </c>
       <c r="H7" s="2">
         <v>72</v>
@@ -3676,1221 +3691,1216 @@
         <v>12</v>
       </c>
       <c r="N7" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O7" s="2">
         <v>10</v>
       </c>
       <c r="P7" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.67900000000000005</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>1.1910000000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>1.1220000000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>119.1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>116.2</v>
       </c>
-      <c r="G8" s="2">
-        <v>2.8999999999999915</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="H8" s="4">
         <v>71.3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>5</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>26</v>
       </c>
-      <c r="N8" s="2">
-        <v>10</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="N8" s="4">
+        <v>14</v>
+      </c>
+      <c r="O8" s="4">
         <v>16</v>
       </c>
-      <c r="P8" s="2">
-        <v>72</v>
+      <c r="P8" s="4">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.196</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.161</v>
-      </c>
-      <c r="E9" s="2">
-        <v>119.6</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.623</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.127</v>
+      </c>
+      <c r="E9" s="4">
+        <v>118</v>
+      </c>
+      <c r="F9" s="4">
         <v>116.2</v>
       </c>
-      <c r="G9" s="2">
-        <v>3.3999999999999915</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="H9" s="4">
         <v>71.3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
         <v>7</v>
       </c>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2">
-        <v>17</v>
-      </c>
-      <c r="L9" s="2">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="K9" s="4">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
         <v>26</v>
       </c>
-      <c r="N9" s="2">
-        <v>9</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="N9" s="4">
+        <v>14</v>
+      </c>
+      <c r="O9" s="4">
         <v>16</v>
       </c>
-      <c r="P9" s="2">
-        <v>83</v>
+      <c r="P9" s="4">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.623</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.127</v>
-      </c>
-      <c r="E10" s="2">
-        <v>118</v>
-      </c>
-      <c r="F10" s="2">
-        <v>116.2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.7999999999999972</v>
-      </c>
-      <c r="H10" s="2">
-        <v>71.3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2">
-        <v>7</v>
-      </c>
-      <c r="K10" s="2">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2">
-        <v>7</v>
-      </c>
-      <c r="M10" s="2">
-        <v>26</v>
-      </c>
-      <c r="N10" s="2">
-        <v>13</v>
-      </c>
-      <c r="O10" s="2">
-        <v>16</v>
-      </c>
-      <c r="P10" s="2">
-        <v>84</v>
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.149</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>114.9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>110.8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I10" s="4">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4">
+        <v>17</v>
+      </c>
+      <c r="K10" s="4">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4">
+        <v>17</v>
+      </c>
+      <c r="M10" s="4">
+        <v>6</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3</v>
+      </c>
+      <c r="P10" s="4">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>118.6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>116.2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2.3999999999999915</v>
-      </c>
-      <c r="H11" s="2">
-        <v>71.3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.133</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.147</v>
+      </c>
+      <c r="E11" s="4">
+        <v>113.3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>110.8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I11" s="4">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4">
+        <v>21</v>
+      </c>
+      <c r="M11" s="4">
         <v>6</v>
       </c>
-      <c r="K11" s="2">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2">
-        <v>6</v>
-      </c>
-      <c r="M11" s="2">
-        <v>26</v>
-      </c>
-      <c r="N11" s="2">
-        <v>12</v>
-      </c>
-      <c r="O11" s="2">
-        <v>16</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>3</v>
+      </c>
+      <c r="P11" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.149</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>114.9</v>
-      </c>
-      <c r="F12" s="2">
-        <v>110.8</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4.1000000000000085</v>
-      </c>
-      <c r="H12" s="2">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="I12" s="2">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.196</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.161</v>
+      </c>
+      <c r="E12" s="4">
+        <v>119.6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>116.2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>71.3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4">
         <v>17</v>
       </c>
-      <c r="K12" s="2">
-        <v>19</v>
-      </c>
-      <c r="L12" s="2">
-        <v>17</v>
-      </c>
-      <c r="M12" s="2">
-        <v>6</v>
-      </c>
-      <c r="N12" s="2">
-        <v>6</v>
-      </c>
-      <c r="O12" s="2">
-        <v>3</v>
-      </c>
-      <c r="P12" s="2">
-        <v>91</v>
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>26</v>
+      </c>
+      <c r="N12" s="4">
+        <v>14</v>
+      </c>
+      <c r="O12" s="4">
+        <v>16</v>
+      </c>
+      <c r="P12" s="4">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>117.4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>114</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3.4000000000000057</v>
-      </c>
-      <c r="H13" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" s="2">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>118.6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>116.2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>71.3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
         <v>12</v>
       </c>
-      <c r="K13" s="2">
-        <v>19</v>
-      </c>
-      <c r="L13" s="2">
-        <v>12</v>
-      </c>
-      <c r="M13" s="2">
-        <v>12</v>
-      </c>
-      <c r="N13" s="2">
-        <v>8</v>
-      </c>
-      <c r="O13" s="2">
-        <v>10</v>
-      </c>
-      <c r="P13" s="2">
-        <v>91</v>
+      <c r="L13" s="4">
+        <v>6</v>
+      </c>
+      <c r="M13" s="4">
+        <v>26</v>
+      </c>
+      <c r="N13" s="4">
+        <v>14</v>
+      </c>
+      <c r="O13" s="4">
+        <v>16</v>
+      </c>
+      <c r="P13" s="4">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>118</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>117.4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>114</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>72</v>
+      </c>
+      <c r="I14" s="4">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14" s="4">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4">
+        <v>12</v>
+      </c>
+      <c r="M14" s="4">
+        <v>12</v>
+      </c>
+      <c r="N14" s="4">
+        <v>7</v>
+      </c>
+      <c r="O14" s="4">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.147</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.083</v>
+      </c>
+      <c r="E15" s="4">
+        <v>114.7</v>
+      </c>
+      <c r="F15" s="4">
         <v>116.2</v>
       </c>
-      <c r="G14" s="2">
-        <v>1.7999999999999972</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G15" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="H15" s="4">
         <v>71.3</v>
       </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>18</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>18</v>
+      </c>
+      <c r="M15" s="4">
+        <v>26</v>
+      </c>
+      <c r="N15" s="4">
+        <v>14</v>
+      </c>
+      <c r="O15" s="4">
         <v>16</v>
       </c>
-      <c r="L14" s="2">
-        <v>7</v>
-      </c>
-      <c r="M14" s="2">
-        <v>26</v>
-      </c>
-      <c r="N14" s="2">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2">
-        <v>16</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="P15" s="4">
         <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.133</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.147</v>
-      </c>
-      <c r="E15" s="2">
-        <v>113.3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>110.8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="I15" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2">
-        <v>21</v>
-      </c>
-      <c r="K15" s="2">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2">
-        <v>21</v>
-      </c>
-      <c r="M15" s="2">
-        <v>6</v>
-      </c>
-      <c r="N15" s="2">
-        <v>11</v>
-      </c>
-      <c r="O15" s="2">
-        <v>3</v>
-      </c>
-      <c r="P15" s="2">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.147</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.083</v>
-      </c>
-      <c r="E16" s="2">
-        <v>114.7</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>118</v>
+      </c>
+      <c r="F16" s="4">
         <v>116.2</v>
       </c>
-      <c r="G16" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="H16" s="4">
         <v>71.3</v>
       </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>18</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>18</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <v>7</v>
+      </c>
+      <c r="K16" s="4">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4">
+        <v>7</v>
+      </c>
+      <c r="M16" s="4">
         <v>26</v>
       </c>
-      <c r="N16" s="2">
-        <v>19</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="N16" s="4">
+        <v>14</v>
+      </c>
+      <c r="O16" s="4">
         <v>16</v>
       </c>
-      <c r="P16" s="2">
-        <v>100</v>
+      <c r="P16" s="4">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>1.173</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>1.131</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>117.3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>116.2</v>
       </c>
-      <c r="G17" s="2">
-        <v>1.0999999999999943</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="H17" s="4">
         <v>71.3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <v>10</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <v>13</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <v>8</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="4">
         <v>13</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="4">
         <v>26</v>
       </c>
-      <c r="N17" s="2">
-        <v>15</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="N17" s="4">
+        <v>14</v>
+      </c>
+      <c r="O17" s="4">
         <v>16</v>
       </c>
-      <c r="P17" s="2">
-        <v>101</v>
+      <c r="P17" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>0.442</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>1.1319999999999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>1.125</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>113.2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>114</v>
       </c>
-      <c r="G18" s="2">
-        <v>-0.79999999999999716</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18">
+        <v>3.9</v>
+      </c>
+      <c r="H18">
         <v>72</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>22</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>22</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <v>6</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>22</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18">
         <v>12</v>
       </c>
-      <c r="N18" s="2">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
         <v>10</v>
       </c>
-      <c r="P18" s="2">
-        <v>111</v>
+      <c r="P18">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>0.51900000000000002</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>1.147</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>114</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>114.8</v>
       </c>
-      <c r="G19" s="2">
-        <v>-0.79999999999999716</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19">
+        <v>-0.8</v>
+      </c>
+      <c r="H19">
         <v>72.5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>17</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>20</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>15</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>20</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19">
         <v>13</v>
       </c>
-      <c r="N19" s="2">
-        <v>17</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
         <v>9</v>
       </c>
-      <c r="P19" s="2">
-        <v>111</v>
+      <c r="P19">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>0.57699999999999996</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>1.169</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>1.1639999999999999</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>116.9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>116.2</v>
       </c>
-      <c r="G20" s="2">
-        <v>0.70000000000000284</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20">
+        <v>-1.3</v>
+      </c>
+      <c r="H20">
         <v>71.3</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>12</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>14</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <v>20</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>14</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>26</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
+        <v>14</v>
+      </c>
+      <c r="O20">
         <v>16</v>
       </c>
-      <c r="O20" s="2">
-        <v>16</v>
-      </c>
-      <c r="P20" s="2">
-        <v>118</v>
+      <c r="P20">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.157</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="E21" s="2">
-        <v>115.7</v>
-      </c>
-      <c r="F21" s="2">
-        <v>120.1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-4.3999999999999915</v>
-      </c>
-      <c r="H21" s="2">
-        <v>72.8</v>
-      </c>
-      <c r="I21" s="2">
-        <v>19</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="D21">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="E21">
+        <v>112.6</v>
+      </c>
+      <c r="F21">
+        <v>116.2</v>
+      </c>
+      <c r="G21">
+        <v>-1.3</v>
+      </c>
+      <c r="H21">
+        <v>71.3</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>14</v>
+      </c>
+      <c r="O21">
         <v>16</v>
       </c>
-      <c r="K21" s="2">
-        <v>24</v>
-      </c>
-      <c r="L21" s="2">
-        <v>16</v>
-      </c>
-      <c r="M21" s="2">
-        <v>30</v>
-      </c>
-      <c r="N21" s="2">
-        <v>26</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
-        <v>132</v>
+      <c r="P21">
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="E22" s="2">
-        <v>112.6</v>
-      </c>
-      <c r="F22" s="2">
-        <v>116.2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-3.6000000000000085</v>
-      </c>
-      <c r="H22" s="2">
-        <v>71.3</v>
-      </c>
-      <c r="I22" s="2">
-        <v>15</v>
-      </c>
-      <c r="J22" s="2">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2">
-        <v>4</v>
-      </c>
-      <c r="L22" s="2">
-        <v>24</v>
-      </c>
-      <c r="M22" s="2">
-        <v>26</v>
-      </c>
-      <c r="N22" s="2">
-        <v>25</v>
-      </c>
-      <c r="O22" s="2">
-        <v>16</v>
-      </c>
-      <c r="P22" s="2">
-        <v>134</v>
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="D22">
+        <v>1.21</v>
+      </c>
+      <c r="E22">
+        <v>109.2</v>
+      </c>
+      <c r="F22">
+        <v>110.8</v>
+      </c>
+      <c r="G22">
+        <v>9.5</v>
+      </c>
+      <c r="H22">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I22">
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <v>28</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>0.52800000000000002</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>1.131</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>1.135</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>113.1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>116.2</v>
       </c>
-      <c r="G23" s="2">
-        <v>-3.1000000000000085</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23">
+        <v>-1.3</v>
+      </c>
+      <c r="H23">
         <v>71.3</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>16</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>23</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
         <v>9</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <v>23</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23">
         <v>26</v>
       </c>
-      <c r="N23" s="2">
-        <v>23</v>
-      </c>
-      <c r="O23" s="2">
+      <c r="N23">
+        <v>14</v>
+      </c>
+      <c r="O23">
         <v>16</v>
       </c>
-      <c r="P23" s="2">
-        <v>136</v>
+      <c r="P23">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="E24" s="2">
-        <v>109.2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>110.8</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-1.5999999999999943</v>
-      </c>
-      <c r="H24" s="2">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="I24" s="2">
-        <v>27</v>
-      </c>
-      <c r="J24" s="2">
-        <v>28</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.157</v>
+      </c>
+      <c r="D24">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="E24">
+        <v>115.7</v>
+      </c>
+      <c r="F24">
+        <v>120.1</v>
+      </c>
+      <c r="G24">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="H24">
+        <v>72.8</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>24</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
         <v>30</v>
       </c>
-      <c r="L24" s="2">
-        <v>28</v>
-      </c>
-      <c r="M24" s="2">
-        <v>6</v>
-      </c>
-      <c r="N24" s="2">
-        <v>20</v>
-      </c>
-      <c r="O24" s="2">
-        <v>3</v>
-      </c>
-      <c r="P24" s="2">
-        <v>142</v>
+      <c r="N24">
+        <v>29</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.198</v>
-      </c>
-      <c r="E25" s="2">
-        <v>117.8</v>
-      </c>
-      <c r="F25" s="2">
-        <v>119.8</v>
-      </c>
-      <c r="G25" s="2">
-        <v>-2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="I25" s="2">
-        <v>21</v>
-      </c>
-      <c r="J25" s="2">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2">
-        <v>27</v>
-      </c>
-      <c r="L25" s="2">
-        <v>11</v>
-      </c>
-      <c r="M25" s="2">
-        <v>28</v>
-      </c>
-      <c r="N25" s="2">
-        <v>21</v>
-      </c>
-      <c r="O25" s="2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.154</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.115</v>
+      </c>
+      <c r="D25">
+        <v>1.202</v>
+      </c>
+      <c r="E25">
+        <v>111.5</v>
+      </c>
+      <c r="F25">
+        <v>114</v>
+      </c>
+      <c r="G25">
+        <v>3.9</v>
+      </c>
+      <c r="H25">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
         <v>29</v>
       </c>
-      <c r="P25" s="2">
-        <v>148</v>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.154</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1.115</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.202</v>
-      </c>
-      <c r="E26" s="2">
-        <v>111.5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>114</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>72</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="D26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E26">
+        <v>107.6</v>
+      </c>
+      <c r="F26">
+        <v>116.2</v>
+      </c>
+      <c r="G26">
+        <v>-1.3</v>
+      </c>
+      <c r="H26">
+        <v>71.3</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
         <v>30</v>
       </c>
-      <c r="J26" s="2">
-        <v>25</v>
-      </c>
-      <c r="K26" s="2">
-        <v>29</v>
-      </c>
-      <c r="L26" s="2">
-        <v>25</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="K26">
         <v>12</v>
       </c>
-      <c r="N26" s="2">
-        <v>22</v>
-      </c>
-      <c r="O26" s="2">
-        <v>10</v>
-      </c>
-      <c r="P26" s="2">
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>14</v>
+      </c>
+      <c r="O26">
+        <v>16</v>
+      </c>
+      <c r="P26">
         <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.177</v>
-      </c>
-      <c r="E27" s="2">
-        <v>114.2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>117.7</v>
-      </c>
-      <c r="G27" s="2">
-        <v>-3.5</v>
-      </c>
-      <c r="H27" s="2">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="I27" s="2">
-        <v>24</v>
-      </c>
-      <c r="J27" s="2">
-        <v>19</v>
-      </c>
-      <c r="K27" s="2">
-        <v>23</v>
-      </c>
-      <c r="L27" s="2">
-        <v>19</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="D27">
+        <v>1.198</v>
+      </c>
+      <c r="E27">
+        <v>117.8</v>
+      </c>
+      <c r="F27">
+        <v>119.8</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+      <c r="H27">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
         <v>27</v>
       </c>
-      <c r="N27" s="2">
-        <v>24</v>
-      </c>
-      <c r="O27" s="2">
-        <v>30</v>
-      </c>
-      <c r="P27" s="2">
-        <v>166</v>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>27</v>
+      </c>
+      <c r="O27">
+        <v>29</v>
+      </c>
+      <c r="P27">
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E28" s="2">
-        <v>107.6</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="D28">
+        <v>1.171</v>
+      </c>
+      <c r="E28">
+        <v>108.8</v>
+      </c>
+      <c r="F28">
         <v>116.2</v>
       </c>
-      <c r="G28" s="2">
-        <v>-8.6000000000000085</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28">
+        <v>-1.3</v>
+      </c>
+      <c r="H28">
         <v>71.3</v>
       </c>
-      <c r="I28" s="2">
-        <v>25</v>
-      </c>
-      <c r="J28" s="2">
-        <v>30</v>
-      </c>
-      <c r="K28" s="2">
-        <v>12</v>
-      </c>
-      <c r="L28" s="2">
-        <v>30</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="I28">
         <v>26</v>
       </c>
-      <c r="N28" s="2">
+      <c r="J28">
         <v>29</v>
       </c>
-      <c r="O28" s="2">
+      <c r="K28">
+        <v>22</v>
+      </c>
+      <c r="L28">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>14</v>
+      </c>
+      <c r="O28">
         <v>16</v>
       </c>
-      <c r="P28" s="2">
-        <v>168</v>
+      <c r="P28">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.111</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>111.1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>120.1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>-9</v>
-      </c>
-      <c r="H29" s="2">
-        <v>72.8</v>
-      </c>
-      <c r="I29" s="2">
-        <v>29</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.189</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.093</v>
+      </c>
+      <c r="D29">
+        <v>1.18</v>
+      </c>
+      <c r="E29">
+        <v>109.3</v>
+      </c>
+      <c r="F29">
+        <v>116.2</v>
+      </c>
+      <c r="G29">
+        <v>-1.3</v>
+      </c>
+      <c r="H29">
+        <v>71.3</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
         <v>26</v>
       </c>
-      <c r="K29" s="2">
-        <v>28</v>
-      </c>
-      <c r="L29" s="2">
-        <v>26</v>
-      </c>
-      <c r="M29" s="2">
-        <v>30</v>
-      </c>
-      <c r="N29" s="2">
-        <v>30</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
-      </c>
-      <c r="P29" s="2">
-        <v>170</v>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.171</v>
-      </c>
-      <c r="E30" s="2">
-        <v>108.8</v>
-      </c>
-      <c r="F30" s="2">
-        <v>116.2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-7.4000000000000057</v>
-      </c>
-      <c r="H30" s="2">
-        <v>71.3</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.111</v>
+      </c>
+      <c r="D30">
+        <v>1.2</v>
+      </c>
+      <c r="E30">
+        <v>111.1</v>
+      </c>
+      <c r="F30">
+        <v>120.1</v>
+      </c>
+      <c r="G30">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="H30">
+        <v>72.8</v>
+      </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30">
         <v>26</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
         <v>29</v>
       </c>
-      <c r="K30" s="2">
-        <v>22</v>
-      </c>
-      <c r="L30" s="2">
-        <v>29</v>
-      </c>
-      <c r="M30" s="2">
-        <v>26</v>
-      </c>
-      <c r="N30" s="2">
-        <v>28</v>
-      </c>
-      <c r="O30" s="2">
-        <v>16</v>
-      </c>
-      <c r="P30" s="2">
-        <v>176</v>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.189</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.093</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E31" s="2">
-        <v>109.3</v>
-      </c>
-      <c r="F31" s="2">
-        <v>116.2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>-6.9000000000000057</v>
-      </c>
-      <c r="H31" s="2">
-        <v>71.3</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="D31">
+        <v>1.177</v>
+      </c>
+      <c r="E31">
+        <v>114.2</v>
+      </c>
+      <c r="F31">
+        <v>117.7</v>
+      </c>
+      <c r="G31">
+        <v>-3.5</v>
+      </c>
+      <c r="H31">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
         <v>28</v>
       </c>
-      <c r="J31" s="2">
-        <v>27</v>
-      </c>
-      <c r="K31" s="2">
-        <v>25</v>
-      </c>
-      <c r="L31" s="2">
-        <v>27</v>
-      </c>
-      <c r="M31" s="2">
-        <v>26</v>
-      </c>
-      <c r="N31" s="2">
-        <v>27</v>
-      </c>
-      <c r="O31" s="2">
-        <v>16</v>
-      </c>
-      <c r="P31" s="2">
-        <v>176</v>
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P31" xr:uid="{19261627-C812-4A32-9E70-63590E5667A3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P31">
-      <sortCondition ref="P1:P31"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
